--- a/Relatorio_1/Chip Fosc.xlsx
+++ b/Relatorio_1/Chip Fosc.xlsx
@@ -66,12 +66,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,7 +114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -121,6 +127,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,6 +140,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -141,15 +211,15 @@
   <dimension ref="A1:D285"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -171,10 +241,10 @@
         <f aca="false">1/A1</f>
         <v>6.25E-008</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
@@ -4567,7 +4637,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4590,7 +4660,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
